--- a/src/main/resources/spreadsheetFiles/SSD local.xlsx
+++ b/src/main/resources/spreadsheetFiles/SSD local.xlsx
@@ -5,13 +5,14 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="fieldnames" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="URL" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="color" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="comments" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="icons" sheetId="5" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
   <si>
     <t xml:space="preserve">OS-Drive</t>
   </si>
@@ -50,6 +51,9 @@
   </si>
   <si>
     <t xml:space="preserve">comment 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hdd.png</t>
   </si>
 </sst>
 </file>
@@ -272,7 +276,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A1 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -342,7 +346,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B10" activeCellId="1" sqref="A1 B10"/>
+      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -414,7 +418,7 @@
   </sheetPr>
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -482,7 +486,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D18" activeCellId="1" sqref="A1 D18"/>
+      <selection pane="topLeft" activeCell="D18" activeCellId="0" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -516,4 +520,62 @@
     <oddFooter/>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A2:D13"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="1"/>
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="1"/>
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
 </file>
--- a/src/main/resources/spreadsheetFiles/SSD local.xlsx
+++ b/src/main/resources/spreadsheetFiles/SSD local.xlsx
@@ -24,12 +24,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
-  <si>
-    <t xml:space="preserve">OS-Drive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data-Drive</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="10">
+  <si>
+    <t xml:space="preserve">my OS-drive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">my data-drive</t>
   </si>
   <si>
     <t xml:space="preserve">C:</t>
@@ -276,7 +276,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -346,7 +346,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -486,7 +486,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D18" activeCellId="0" sqref="D18"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -527,14 +527,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:D13"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
+      <selection pane="topLeft" activeCell="B21" activeCellId="0" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>9</v>
